--- a/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/TABLE_zisk.xlsx
+++ b/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/TABLE_zisk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ef484bc4f40e753/02_Škola a Školní projekty/05_Magisterske_Studium/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{F6B13A76-5F62-AB4F-A41C-517B7EF7D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8ACAE6E-27F1-124B-AE1C-95A094CB7F49}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{F6B13A76-5F62-AB4F-A41C-517B7EF7D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3813539-C12D-F548-8EBA-C3FA71E70198}"/>
   <bookViews>
     <workbookView xWindow="8660" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{12FAF507-91A5-BC41-AAAA-E86EC6315936}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>Year</t>
   </si>
@@ -2392,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387FED4E-B367-C848-B1E0-9C78E5C12237}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2806,9 +2806,42 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="17" spans="5:16">
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+    <row r="16" spans="1:11">
+      <c r="B16" s="7">
+        <v>2010</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2012</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2013</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="8">
+        <v>67974</v>
+      </c>
+      <c r="C17" s="8">
+        <v>64259</v>
+      </c>
+      <c r="D17" s="8">
+        <v>61174</v>
+      </c>
+      <c r="E17" s="8">
+        <v>63775</v>
+      </c>
+      <c r="F17" s="8">
+        <v>63594</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -2820,70 +2853,232 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="5:16">
+    <row r="18" spans="1:16">
+      <c r="A18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="8">
+        <v>6814</v>
+      </c>
+      <c r="C18" s="8">
+        <v>-3715</v>
+      </c>
+      <c r="D18" s="8">
+        <v>-3085</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2601</v>
+      </c>
+      <c r="F18" s="8">
+        <v>-181</v>
+      </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="5:16">
+    <row r="19" spans="1:16">
+      <c r="A19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.111413</v>
+      </c>
+      <c r="C19" s="9">
+        <v>-5.4653E-2</v>
+      </c>
+      <c r="D19" s="9">
+        <v>-4.8009000000000003E-2</v>
+      </c>
+      <c r="E19" s="9">
+        <v>4.2518E-2</v>
+      </c>
+      <c r="F19" s="9">
+        <v>-2.8379999999999998E-3</v>
+      </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="5:16">
+    <row r="20" spans="1:16">
+      <c r="A20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8">
+        <v>11690</v>
+      </c>
+      <c r="C20" s="8">
+        <v>13399</v>
+      </c>
+      <c r="D20" s="7">
+        <v>9092</v>
+      </c>
+      <c r="E20" s="8">
+        <v>12622</v>
+      </c>
+      <c r="F20" s="8">
+        <v>10314</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="5:16">
+    <row r="21" spans="1:16">
+      <c r="A21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="8">
+        <v>4728</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1709</v>
+      </c>
+      <c r="D21" s="8">
+        <v>-4307</v>
+      </c>
+      <c r="E21" s="8">
+        <v>3530</v>
+      </c>
+      <c r="F21" s="8">
+        <v>-2308</v>
+      </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="5:16">
+    <row r="22" spans="1:16">
+      <c r="A22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.67911500000000002</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.14619299999999999</v>
+      </c>
+      <c r="D22" s="9">
+        <v>-0.32144200000000001</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.38825300000000001</v>
+      </c>
+      <c r="F22" s="9">
+        <v>-0.18285499999999999</v>
+      </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="5:16">
+    <row r="23" spans="1:16">
+      <c r="A23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="7">
+        <v>38581</v>
+      </c>
+      <c r="C23" s="7">
+        <v>30801</v>
+      </c>
+      <c r="D23" s="7">
+        <v>27022</v>
+      </c>
+      <c r="E23" s="7">
+        <v>30758</v>
+      </c>
+      <c r="F23" s="7">
+        <v>29937</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="5:16">
+    <row r="24" spans="1:16">
+      <c r="A24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="7">
+        <v>6506</v>
+      </c>
+      <c r="C24" s="7">
+        <v>-7780</v>
+      </c>
+      <c r="D24" s="7">
+        <v>-3779</v>
+      </c>
+      <c r="E24" s="7">
+        <v>3736</v>
+      </c>
+      <c r="F24" s="7">
+        <v>-821</v>
+      </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="5:16">
+    <row r="25" spans="1:16">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.20283699999999999</v>
+      </c>
+      <c r="C25" s="9">
+        <v>-0.201654</v>
+      </c>
+      <c r="D25" s="9">
+        <v>-0.12269099999999999</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.13825799999999999</v>
+      </c>
+      <c r="F25" s="9">
+        <v>-2.6692E-2</v>
+      </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="5:16">
+    <row r="26" spans="1:16">
+      <c r="A26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="9">
+        <v>8.1560000000000001E-3</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1.7461000000000001E-2</v>
+      </c>
+      <c r="D26" s="9">
+        <v>7.3249999999999999E-3</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1.3207E-2</v>
+      </c>
+      <c r="F26" s="9">
+        <v>4.8968999999999999E-2</v>
+      </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="5:16">
+    <row r="27" spans="1:16">
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="9"/>
@@ -2897,6 +3092,223 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
+    <row r="30" spans="1:16">
+      <c r="B30" s="7">
+        <v>2015</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2016</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2017</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2018</v>
+      </c>
+      <c r="F30" s="7">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="8">
+        <v>67197</v>
+      </c>
+      <c r="C31" s="8">
+        <v>72345</v>
+      </c>
+      <c r="D31" s="8">
+        <v>76690</v>
+      </c>
+      <c r="E31" s="8">
+        <v>92918</v>
+      </c>
+      <c r="F31" s="8">
+        <v>104449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="8">
+        <v>3603</v>
+      </c>
+      <c r="C32" s="8">
+        <v>5148</v>
+      </c>
+      <c r="D32" s="8">
+        <v>4345</v>
+      </c>
+      <c r="E32" s="8">
+        <v>16228</v>
+      </c>
+      <c r="F32" s="8">
+        <v>11531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="9">
+        <v>5.6655999999999998E-2</v>
+      </c>
+      <c r="C33" s="9">
+        <v>7.6610999999999999E-2</v>
+      </c>
+      <c r="D33" s="9">
+        <v>6.0059000000000001E-2</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.21160499999999999</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.124099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="8">
+        <v>11054</v>
+      </c>
+      <c r="C34" s="8">
+        <v>12619</v>
+      </c>
+      <c r="D34" s="8">
+        <v>13181</v>
+      </c>
+      <c r="E34" s="8">
+        <v>18063</v>
+      </c>
+      <c r="F34" s="8">
+        <v>22571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="8">
+        <v>740</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1565</v>
+      </c>
+      <c r="D35" s="8">
+        <v>562</v>
+      </c>
+      <c r="E35" s="8">
+        <v>4882</v>
+      </c>
+      <c r="F35" s="8">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="9">
+        <v>7.1747000000000005E-2</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0.14157800000000001</v>
+      </c>
+      <c r="D36" s="9">
+        <v>4.4535999999999999E-2</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.37038199999999999</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0.24957099999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="7">
+        <v>31164</v>
+      </c>
+      <c r="C37" s="7">
+        <v>36115</v>
+      </c>
+      <c r="D37" s="7">
+        <v>33632</v>
+      </c>
+      <c r="E37" s="7">
+        <v>36739</v>
+      </c>
+      <c r="F37" s="7">
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1227</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4951</v>
+      </c>
+      <c r="D38" s="7">
+        <v>-2483</v>
+      </c>
+      <c r="E38" s="7">
+        <v>3107</v>
+      </c>
+      <c r="F38" s="7">
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="9">
+        <v>4.0986000000000002E-2</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0.15886900000000001</v>
+      </c>
+      <c r="D39" s="9">
+        <v>-6.8752999999999995E-2</v>
+      </c>
+      <c r="E39" s="9">
+        <v>9.2382000000000006E-2</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0.20251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="9">
+        <v>6.5172999999999995E-2</v>
+      </c>
+      <c r="C40" s="9">
+        <v>3.6091999999999999E-2</v>
+      </c>
+      <c r="D40" s="9">
+        <v>6.7424999999999999E-2</v>
+      </c>
+      <c r="E40" s="9">
+        <v>5.8272999999999998E-2</v>
+      </c>
+      <c r="F40" s="9">
+        <v>6.9605E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/TABLE_zisk.xlsx
+++ b/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/TABLE_zisk.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ef484bc4f40e753/02_Škola a Školní projekty/05_Magisterske_Studium/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{F6B13A76-5F62-AB4F-A41C-517B7EF7D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3813539-C12D-F548-8EBA-C3FA71E70198}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="8_{F6B13A76-5F62-AB4F-A41C-517B7EF7D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C494FC9-7B37-7C48-859A-C5F1EB2D64AB}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{12FAF507-91A5-BC41-AAAA-E86EC6315936}"/>
+    <workbookView xWindow="8660" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{12FAF507-91A5-BC41-AAAA-E86EC6315936}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="HDP" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>Year</t>
   </si>
@@ -120,6 +121,81 @@
   </si>
   <si>
     <t>Procentuální růst bilanční sumy</t>
+  </si>
+  <si>
+    <t>Tržby z prodeje výrobků a služeb</t>
+  </si>
+  <si>
+    <t>Tržby za prodej zboží</t>
+  </si>
+  <si>
+    <t>Výkonová spotřeba</t>
+  </si>
+  <si>
+    <t>Změna stavu zásob vlastní činnosti</t>
+  </si>
+  <si>
+    <t>Aktivace</t>
+  </si>
+  <si>
+    <t>Osobní náklady</t>
+  </si>
+  <si>
+    <t>Úpravy hodnot v provozní oblasti</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Příjem</t>
+  </si>
+  <si>
+    <t>Náklad</t>
+  </si>
+  <si>
+    <t>Příjem/Náklad</t>
+  </si>
+  <si>
+    <t>Ostatní provozní výnosy</t>
+  </si>
+  <si>
+    <t>Ostatní provozní náklady</t>
+  </si>
+  <si>
+    <t>Výnosy z dlouhodobého finančního majetku</t>
+  </si>
+  <si>
+    <t>Náklady vynaložené na prodané podíly</t>
+  </si>
+  <si>
+    <t>Výnosy z ostatního dlouhodobého finančního majetku</t>
+  </si>
+  <si>
+    <t>Náklady související s ostatním dlouhodobým majetkem</t>
+  </si>
+  <si>
+    <t>Výnosové úroky a podobné výnosy</t>
+  </si>
+  <si>
+    <t>Úpravy hodnot a rezervy ve fianční oblasti</t>
+  </si>
+  <si>
+    <t>Nákladové úroky a podobné náklady</t>
+  </si>
+  <si>
+    <t>Ostatní finanční výnosy</t>
+  </si>
+  <si>
+    <t>Ostatní finanční náklady</t>
+  </si>
+  <si>
+    <t>Daň z příjmů</t>
+  </si>
+  <si>
+    <t>Převod podílu na výsledek hospodaření společníkům</t>
+  </si>
+  <si>
+    <t>Cash flow:</t>
   </si>
 </sst>
 </file>
@@ -261,6 +337,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Čistý zisk</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1629,7 +1730,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1812,7 +1913,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B11" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2394,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387FED4E-B367-C848-B1E0-9C78E5C12237}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A40"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A40" sqref="A30:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3312,4 +3413,387 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699F4A10-510F-434E-8214-2345FF6F6886}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1">
+        <v>2015</v>
+      </c>
+      <c r="D1">
+        <v>2016</v>
+      </c>
+      <c r="E1">
+        <v>2017</v>
+      </c>
+      <c r="F1">
+        <v>2018</v>
+      </c>
+      <c r="G1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2">
+        <v>67108</v>
+      </c>
+      <c r="D2" s="2">
+        <v>72345</v>
+      </c>
+      <c r="E2" s="2">
+        <v>76690</v>
+      </c>
+      <c r="F2" s="2">
+        <v>92916</v>
+      </c>
+      <c r="G2" s="2">
+        <v>104449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2">
+        <v>15771</v>
+      </c>
+      <c r="D4" s="2">
+        <v>17006</v>
+      </c>
+      <c r="E4" s="2">
+        <v>17362</v>
+      </c>
+      <c r="F4">
+        <v>24402</v>
+      </c>
+      <c r="G4" s="2">
+        <v>21735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>-144</v>
+      </c>
+      <c r="G5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>34801</v>
+      </c>
+      <c r="D7" s="2">
+        <v>36779</v>
+      </c>
+      <c r="E7" s="2">
+        <v>39338</v>
+      </c>
+      <c r="F7" s="2">
+        <v>42901</v>
+      </c>
+      <c r="G7" s="2">
+        <v>49693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>1805</v>
+      </c>
+      <c r="D8">
+        <v>1734</v>
+      </c>
+      <c r="E8">
+        <v>1873</v>
+      </c>
+      <c r="F8">
+        <v>1706</v>
+      </c>
+      <c r="G8">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>203</v>
+      </c>
+      <c r="D9">
+        <v>848</v>
+      </c>
+      <c r="E9">
+        <v>476</v>
+      </c>
+      <c r="F9">
+        <v>599</v>
+      </c>
+      <c r="G9">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>765</v>
+      </c>
+      <c r="D10">
+        <v>1094</v>
+      </c>
+      <c r="E10">
+        <v>923</v>
+      </c>
+      <c r="F10">
+        <v>764</v>
+      </c>
+      <c r="G10">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>217</v>
+      </c>
+      <c r="F18">
+        <v>121</v>
+      </c>
+      <c r="G18">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>719</v>
+      </c>
+      <c r="D19">
+        <v>612</v>
+      </c>
+      <c r="E19">
+        <v>1450</v>
+      </c>
+      <c r="F19">
+        <v>1307</v>
+      </c>
+      <c r="G19">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>2738</v>
+      </c>
+      <c r="D20">
+        <v>3301</v>
+      </c>
+      <c r="E20">
+        <v>3232</v>
+      </c>
+      <c r="F20">
+        <v>4619</v>
+      </c>
+      <c r="G20">
+        <v>5632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2">
+        <f>SUM(C2:C21)</f>
+        <v>124051</v>
+      </c>
+      <c r="D22" s="2">
+        <f>SUM(D2:D21)</f>
+        <v>133777</v>
+      </c>
+      <c r="E22" s="2">
+        <f>SUM(E2:E21)</f>
+        <v>141585</v>
+      </c>
+      <c r="F22" s="2">
+        <f>SUM(F2:F20)+144+144</f>
+        <v>169479</v>
+      </c>
+      <c r="G22" s="2">
+        <f>SUM(G2:G21)</f>
+        <v>188747</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/TABLE_zisk.xlsx
+++ b/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/TABLE_zisk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ef484bc4f40e753/02_Škola a Školní projekty/05_Magisterske_Studium/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="8_{F6B13A76-5F62-AB4F-A41C-517B7EF7D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C494FC9-7B37-7C48-859A-C5F1EB2D64AB}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="8_{F6B13A76-5F62-AB4F-A41C-517B7EF7D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1898B033-9D32-DE48-BC7D-79A6367B9B84}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{12FAF507-91A5-BC41-AAAA-E86EC6315936}"/>
+    <workbookView xWindow="8660" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="6" xr2:uid="{12FAF507-91A5-BC41-AAAA-E86EC6315936}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="HDP" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
   <si>
     <t>Year</t>
   </si>
@@ -196,6 +198,66 @@
   </si>
   <si>
     <t>Cash flow:</t>
+  </si>
+  <si>
+    <t>PS Cash</t>
+  </si>
+  <si>
+    <t>EBT</t>
+  </si>
+  <si>
+    <t>Odpisy (+)</t>
+  </si>
+  <si>
+    <t>Úroky (+/-)</t>
+  </si>
+  <si>
+    <t>Δ Zásoby (+/-)</t>
+  </si>
+  <si>
+    <t>Δ Pohledávky (+/-)</t>
+  </si>
+  <si>
+    <t>Δ Závazky (+/-)</t>
+  </si>
+  <si>
+    <t>Zaplacená daň (-)</t>
+  </si>
+  <si>
+    <t>Provozní CF</t>
+  </si>
+  <si>
+    <t>Nákup fixních aktiv (-)</t>
+  </si>
+  <si>
+    <t>Půjčky ve skupině (+/-)</t>
+  </si>
+  <si>
+    <t>Investiční CF</t>
+  </si>
+  <si>
+    <t>Zvýšení ZK (+)</t>
+  </si>
+  <si>
+    <t>Bankovní úvěry (+)</t>
+  </si>
+  <si>
+    <t>Splátky bankovních úvěrů (-)</t>
+  </si>
+  <si>
+    <t>Emitované dluhopisy (+)</t>
+  </si>
+  <si>
+    <t>Vyplacené dluhopisy (-)</t>
+  </si>
+  <si>
+    <t>Finanční CF</t>
+  </si>
+  <si>
+    <t>Δ Cash (+/-)</t>
+  </si>
+  <si>
+    <t>KS Cash</t>
   </si>
 </sst>
 </file>
@@ -3419,8 +3481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699F4A10-510F-434E-8214-2345FF6F6886}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3796,4 +3858,584 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C97F3-3253-AE48-B165-0A2DE67FC02A}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>67108</v>
+      </c>
+      <c r="C2">
+        <v>72345</v>
+      </c>
+      <c r="D2">
+        <v>76690</v>
+      </c>
+      <c r="E2">
+        <v>92916</v>
+      </c>
+      <c r="F2">
+        <v>104449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>15771</v>
+      </c>
+      <c r="C4">
+        <v>17006</v>
+      </c>
+      <c r="D4">
+        <v>17362</v>
+      </c>
+      <c r="E4">
+        <v>24402</v>
+      </c>
+      <c r="F4">
+        <v>21735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>89</v>
+      </c>
+      <c r="C5">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>-144</v>
+      </c>
+      <c r="F5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>34801</v>
+      </c>
+      <c r="C7">
+        <v>36779</v>
+      </c>
+      <c r="D7">
+        <v>39338</v>
+      </c>
+      <c r="E7">
+        <v>42901</v>
+      </c>
+      <c r="F7">
+        <v>49693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>1805</v>
+      </c>
+      <c r="C8">
+        <v>1734</v>
+      </c>
+      <c r="D8">
+        <v>1873</v>
+      </c>
+      <c r="E8">
+        <v>1706</v>
+      </c>
+      <c r="F8">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>203</v>
+      </c>
+      <c r="C9">
+        <v>848</v>
+      </c>
+      <c r="D9">
+        <v>476</v>
+      </c>
+      <c r="E9">
+        <v>599</v>
+      </c>
+      <c r="F9">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>765</v>
+      </c>
+      <c r="C10">
+        <v>1094</v>
+      </c>
+      <c r="D10">
+        <v>923</v>
+      </c>
+      <c r="E10">
+        <v>764</v>
+      </c>
+      <c r="F10">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>49</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>217</v>
+      </c>
+      <c r="E18">
+        <v>121</v>
+      </c>
+      <c r="F18">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>719</v>
+      </c>
+      <c r="C19">
+        <v>612</v>
+      </c>
+      <c r="D19">
+        <v>1450</v>
+      </c>
+      <c r="E19">
+        <v>1307</v>
+      </c>
+      <c r="F19">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>2738</v>
+      </c>
+      <c r="C20">
+        <v>3301</v>
+      </c>
+      <c r="D20">
+        <v>3232</v>
+      </c>
+      <c r="E20">
+        <v>4619</v>
+      </c>
+      <c r="F20">
+        <v>5632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>124051</v>
+      </c>
+      <c r="C22">
+        <v>133777</v>
+      </c>
+      <c r="D22">
+        <v>141585</v>
+      </c>
+      <c r="E22">
+        <v>169479</v>
+      </c>
+      <c r="F22">
+        <v>188747</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCA47BA-BEE7-9B44-BF1B-8133CDC4F313}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2">
+        <v>16181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2">
+        <v>28203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" ref="B11:E11" si="0">SUM(B4:B10)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <f>SUM(F4:F10)</f>
+        <v>39244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2">
+        <f>SUM(F13:F14)</f>
+        <v>-502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:E22" si="1">SUM(B17:B21)</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>SUM(F17:F21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="2">
+        <v>23618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" ref="B26:E26" si="2">B2+B11+B15+B22</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <f>F2+F11+F15+F22</f>
+        <v>54923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/TABLE_zisk.xlsx
+++ b/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/TABLE_zisk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ef484bc4f40e753/02_Škola a Školní projekty/05_Magisterske_Studium/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="368" documentId="8_{F6B13A76-5F62-AB4F-A41C-517B7EF7D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1898B033-9D32-DE48-BC7D-79A6367B9B84}"/>
+  <xr:revisionPtr revIDLastSave="378" documentId="8_{F6B13A76-5F62-AB4F-A41C-517B7EF7D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD53DF0F-5177-9649-AC59-9A6BC32070C0}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="6" xr2:uid="{12FAF507-91A5-BC41-AAAA-E86EC6315936}"/>
+    <workbookView xWindow="8660" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="7" xr2:uid="{12FAF507-91A5-BC41-AAAA-E86EC6315936}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="takticke" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="106">
   <si>
     <t>Year</t>
   </si>
@@ -125,6 +126,9 @@
     <t>Procentuální růst bilanční sumy</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>Tržby z prodeje výrobků a služeb</t>
   </si>
   <si>
@@ -258,6 +262,135 @@
   </si>
   <si>
     <t>KS Cash</t>
+  </si>
+  <si>
+    <t>Výše vlastního kapitálu k bilanční sumě</t>
+  </si>
+  <si>
+    <t>31 164/23 898</t>
+  </si>
+  <si>
+    <t>36 115/25 517</t>
+  </si>
+  <si>
+    <t>33 632/17 236</t>
+  </si>
+  <si>
+    <t>36 739/22 300</t>
+  </si>
+  <si>
+    <t>44 179/26 871</t>
+  </si>
+  <si>
+    <t>Obratovost pohledávek</t>
+  </si>
+  <si>
+    <t>67 197/11 275</t>
+  </si>
+  <si>
+    <t>72 345/12 615</t>
+  </si>
+  <si>
+    <t>76 690/11 322</t>
+  </si>
+  <si>
+    <t>92 918/14 215</t>
+  </si>
+  <si>
+    <t>104 449/14 016</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>13 792 + 1742</t>
+  </si>
+  <si>
+    <t>15 920 + 1734</t>
+  </si>
+  <si>
+    <t>16 413 + 1873</t>
+  </si>
+  <si>
+    <t>22 682 + 1706</t>
+  </si>
+  <si>
+    <t>28 203 + 1696</t>
+  </si>
+  <si>
+    <t>Počty pracovních úrazů (volitelně všechno níže)</t>
+  </si>
+  <si>
+    <t>Počty nových smluv (Registr smluv)</t>
+  </si>
+  <si>
+    <t>0 + ?</t>
+  </si>
+  <si>
+    <t>3 + ?</t>
+  </si>
+  <si>
+    <t>2 + ?</t>
+  </si>
+  <si>
+    <t>13 + ?</t>
+  </si>
+  <si>
+    <t>Nových produktů a služeb na trhu</t>
+  </si>
+  <si>
+    <t>Rentabilita vlastního kapitálu</t>
+  </si>
+  <si>
+    <t>ROS</t>
+  </si>
+  <si>
+    <t>Hrubá marže</t>
+  </si>
+  <si>
+    <t>67 197 - 15 771 (Zároveň dát procenta)</t>
+  </si>
+  <si>
+    <t>72 345 - 17 006</t>
+  </si>
+  <si>
+    <t>76 690 - 17 362</t>
+  </si>
+  <si>
+    <t>92 918 - 24 402</t>
+  </si>
+  <si>
+    <t>104 449 - 21 735</t>
+  </si>
+  <si>
+    <t>Likvidita (Běžná)</t>
+  </si>
+  <si>
+    <t>25 581 / 6 130</t>
+  </si>
+  <si>
+    <t>29 374 / 7598</t>
+  </si>
+  <si>
+    <t>27 490 / 13 030</t>
+  </si>
+  <si>
+    <t>30 837 / 11 792</t>
+  </si>
+  <si>
+    <t>37 952 / 15 423</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>98.75</t>
+  </si>
+  <si>
+    <t>Taktické ukazatele</t>
+  </si>
+  <si>
+    <t>Vývoj v čase</t>
   </si>
 </sst>
 </file>
@@ -355,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -366,6 +499,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3493,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1">
         <v>2015</v>
@@ -3513,10 +3649,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <v>67108</v>
@@ -3536,18 +3672,18 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>15771</v>
@@ -3567,10 +3703,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>89</v>
@@ -3590,18 +3726,18 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>34801</v>
@@ -3621,7 +3757,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1805</v>
@@ -3641,10 +3777,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>203</v>
@@ -3664,10 +3800,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>765</v>
@@ -3687,42 +3823,42 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -3742,23 +3878,23 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>49</v>
@@ -3778,10 +3914,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>719</v>
@@ -3801,10 +3937,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>2738</v>
@@ -3824,15 +3960,15 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2">
         <f>SUM(C2:C21)</f>
@@ -3893,7 +4029,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>67108</v>
@@ -3913,12 +4049,12 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>15771</v>
@@ -3938,7 +4074,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>89</v>
@@ -3958,12 +4094,12 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>34801</v>
@@ -3983,7 +4119,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>1805</v>
@@ -4003,7 +4139,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>203</v>
@@ -4023,7 +4159,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>765</v>
@@ -4043,27 +4179,27 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -4083,17 +4219,17 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>49</v>
@@ -4113,7 +4249,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>719</v>
@@ -4133,7 +4269,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>2738</v>
@@ -4153,12 +4289,12 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>124051</v>
@@ -4185,7 +4321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCA47BA-BEE7-9B44-BF1B-8133CDC4F313}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4213,7 +4349,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2">
         <v>16181</v>
@@ -4221,7 +4357,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2">
         <v>28203</v>
@@ -4229,7 +4365,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>1696</v>
@@ -4237,7 +4373,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -4245,7 +4381,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>123</v>
@@ -4253,7 +4389,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2">
         <v>-14</v>
@@ -4261,7 +4397,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>3604</v>
@@ -4269,7 +4405,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2">
         <v>5632</v>
@@ -4277,7 +4413,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" ref="B11:E11" si="0">SUM(B4:B10)</f>
@@ -4302,7 +4438,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2">
         <v>-502</v>
@@ -4310,7 +4446,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4330,7 +4466,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2">
         <f>SUM(F13:F14)</f>
@@ -4339,7 +4475,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -4347,7 +4483,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -4355,7 +4491,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -4363,7 +4499,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -4371,7 +4507,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -4379,7 +4515,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <f t="shared" ref="B22:E22" si="1">SUM(B17:B21)</f>
@@ -4404,7 +4540,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2">
         <v>23618</v>
@@ -4412,7 +4548,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" ref="B26:E26" si="2">B2+B11+B15+B22</f>
@@ -4438,4 +4574,831 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9179C3-D7BE-4E4E-AAAB-BB9F0A476C3D}">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="10">
+        <v>46.225000000000001</v>
+      </c>
+      <c r="C13" s="10">
+        <v>49.453000000000003</v>
+      </c>
+      <c r="D13" s="10">
+        <v>76.474000000000004</v>
+      </c>
+      <c r="E13" s="10">
+        <v>81</v>
+      </c>
+      <c r="F13" s="10">
+        <v>83.988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.16400999999999999</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.17227999999999999</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.17076</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.21345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="10">
+        <v>100</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C29" s="10">
+        <v>2016</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2017</v>
+      </c>
+      <c r="E29" s="10">
+        <v>2018</v>
+      </c>
+      <c r="F29" s="10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="10">
+        <f>31164/23898</f>
+        <v>1.3040421792618628</v>
+      </c>
+      <c r="C31" s="10">
+        <f>36115/25517</f>
+        <v>1.415330955833366</v>
+      </c>
+      <c r="D31" s="10">
+        <f>33632/17236</f>
+        <v>1.9512647946159201</v>
+      </c>
+      <c r="E31" s="10">
+        <f>36739/22300</f>
+        <v>1.6474887892376682</v>
+      </c>
+      <c r="F31" s="10">
+        <f>44179/26871</f>
+        <v>1.6441144728517734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="10">
+        <v>46.225000000000001</v>
+      </c>
+      <c r="C43" s="10">
+        <v>49.453000000000003</v>
+      </c>
+      <c r="D43" s="10">
+        <v>76.474000000000004</v>
+      </c>
+      <c r="E43" s="10">
+        <v>81</v>
+      </c>
+      <c r="F43" s="10">
+        <v>83.988</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="11">
+        <v>0.16400999999999999</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0.17227999999999999</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0.17076</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0.21345</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="10">
+        <v>100</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="144">
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/TABLE_zisk.xlsx
+++ b/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/TABLE_zisk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ef484bc4f40e753/02_Škola a Školní projekty/05_Magisterske_Studium/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="378" documentId="8_{F6B13A76-5F62-AB4F-A41C-517B7EF7D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD53DF0F-5177-9649-AC59-9A6BC32070C0}"/>
+  <xr:revisionPtr revIDLastSave="526" documentId="8_{F6B13A76-5F62-AB4F-A41C-517B7EF7D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFA860F6-A0CB-1B4F-9B98-B49C2FDB7398}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="7" xr2:uid="{12FAF507-91A5-BC41-AAAA-E86EC6315936}"/>
+    <workbookView xWindow="8660" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="6" xr2:uid="{12FAF507-91A5-BC41-AAAA-E86EC6315936}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="112">
   <si>
     <t>Year</t>
   </si>
@@ -391,14 +391,33 @@
   </si>
   <si>
     <t>Vývoj v čase</t>
+  </si>
+  <si>
+    <t>51426 (426,08%)</t>
+  </si>
+  <si>
+    <t>55339 (425,41%)</t>
+  </si>
+  <si>
+    <t>59328 (441,71%)</t>
+  </si>
+  <si>
+    <t>68516 (380,78%)</t>
+  </si>
+  <si>
+    <t>82714 (480,56%)</t>
+  </si>
+  <si>
+    <t>Opraveno pořadí</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="173" formatCode="0.0000%"/>
+    <numFmt numFmtId="180" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -488,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -502,6 +521,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4321,8 +4342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCA47BA-BEE7-9B44-BF1B-8133CDC4F313}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4351,6 +4372,18 @@
       <c r="A2" t="s">
         <v>43</v>
       </c>
+      <c r="B2" s="2">
+        <v>13678</v>
+      </c>
+      <c r="C2" s="2">
+        <v>13917</v>
+      </c>
+      <c r="D2" s="2">
+        <v>16423</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15857</v>
+      </c>
       <c r="F2" s="2">
         <v>16181</v>
       </c>
@@ -4359,6 +4392,18 @@
       <c r="A4" t="s">
         <v>44</v>
       </c>
+      <c r="B4" s="2">
+        <v>13792</v>
+      </c>
+      <c r="C4" s="2">
+        <v>15920</v>
+      </c>
+      <c r="D4" s="2">
+        <v>16413</v>
+      </c>
+      <c r="E4" s="2">
+        <v>22682</v>
+      </c>
       <c r="F4" s="2">
         <v>28203</v>
       </c>
@@ -4367,6 +4412,18 @@
       <c r="A5" t="s">
         <v>45</v>
       </c>
+      <c r="B5">
+        <v>1762</v>
+      </c>
+      <c r="C5">
+        <v>1734</v>
+      </c>
+      <c r="D5">
+        <v>1873</v>
+      </c>
+      <c r="E5">
+        <v>1706</v>
+      </c>
       <c r="F5">
         <v>1696</v>
       </c>
@@ -4375,6 +4432,18 @@
       <c r="A6" t="s">
         <v>46</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
@@ -4383,6 +4452,18 @@
       <c r="A7" t="s">
         <v>47</v>
       </c>
+      <c r="B7">
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <v>-53</v>
+      </c>
+      <c r="D7">
+        <v>-24</v>
+      </c>
+      <c r="E7">
+        <v>144</v>
+      </c>
       <c r="F7">
         <v>123</v>
       </c>
@@ -4391,6 +4472,18 @@
       <c r="A8" t="s">
         <v>48</v>
       </c>
+      <c r="B8">
+        <v>1021</v>
+      </c>
+      <c r="C8">
+        <v>1340</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-1293</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2879</v>
+      </c>
       <c r="F8" s="2">
         <v>-14</v>
       </c>
@@ -4399,6 +4492,18 @@
       <c r="A9" t="s">
         <v>49</v>
       </c>
+      <c r="B9">
+        <v>-29</v>
+      </c>
+      <c r="C9">
+        <v>1468</v>
+      </c>
+      <c r="D9">
+        <v>5432</v>
+      </c>
+      <c r="E9">
+        <v>-1238</v>
+      </c>
       <c r="F9">
         <v>3604</v>
       </c>
@@ -4407,8 +4512,20 @@
       <c r="A10" t="s">
         <v>50</v>
       </c>
+      <c r="B10">
+        <v>2738</v>
+      </c>
+      <c r="C10">
+        <v>-3301</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-3232</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-4619</v>
+      </c>
       <c r="F10" s="2">
-        <v>5632</v>
+        <v>-5632</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4417,29 +4534,41 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ref="B11:E11" si="0">SUM(B4:B10)</f>
-        <v>0</v>
+        <v>19373</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17108</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19169</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21554</v>
       </c>
       <c r="F11" s="2">
         <f>SUM(F4:F10)</f>
-        <v>39244</v>
+        <v>27980</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>52</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>-384</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-60</v>
+      </c>
       <c r="F13" s="2">
         <v>-502</v>
       </c>
@@ -4468,6 +4597,22 @@
       <c r="A15" t="s">
         <v>54</v>
       </c>
+      <c r="B15" s="2">
+        <f t="shared" ref="B15:D15" si="1">SUM(B13:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>-384</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <f>SUM(E13:E14)</f>
+        <v>-60</v>
+      </c>
       <c r="F15" s="2">
         <f>SUM(F13:F14)</f>
         <v>-502</v>
@@ -4477,6 +4622,18 @@
       <c r="A17" t="s">
         <v>55</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
       <c r="F17">
         <v>0</v>
       </c>
@@ -4485,6 +4642,18 @@
       <c r="A18" t="s">
         <v>56</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
       <c r="F18" s="2">
         <v>0</v>
       </c>
@@ -4493,6 +4662,18 @@
       <c r="A19" t="s">
         <v>57</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
@@ -4501,6 +4682,18 @@
       <c r="A20" t="s">
         <v>58</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
       <c r="F20">
         <v>0</v>
       </c>
@@ -4509,6 +4702,18 @@
       <c r="A21" t="s">
         <v>59</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
       <c r="F21">
         <v>0</v>
       </c>
@@ -4518,19 +4723,19 @@
         <v>60</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:E22" si="1">SUM(B17:B21)</f>
+        <f t="shared" ref="B22:E22" si="2">SUM(B17:B21)</f>
         <v>0</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F22">
@@ -4542,6 +4747,18 @@
       <c r="A24" t="s">
         <v>61</v>
       </c>
+      <c r="B24" s="2">
+        <v>13917</v>
+      </c>
+      <c r="C24" s="2">
+        <v>16423</v>
+      </c>
+      <c r="D24" s="2">
+        <v>15857</v>
+      </c>
+      <c r="E24" s="2">
+        <v>16181</v>
+      </c>
       <c r="F24" s="2">
         <v>23618</v>
       </c>
@@ -4551,24 +4768,24 @@
         <v>62</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" ref="B26:E26" si="2">B2+B11+B15+B22</f>
-        <v>0</v>
+        <f t="shared" ref="B26:E26" si="3">B2+B11+B15+B22</f>
+        <v>33051</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>30641</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>35592</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>37351</v>
       </c>
       <c r="F26" s="2">
         <f>F2+F11+F15+F22</f>
-        <v>54923</v>
+        <v>43659</v>
       </c>
     </row>
   </sheetData>
@@ -4578,10 +4795,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9179C3-D7BE-4E4E-AAAB-BB9F0A476C3D}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B34"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4817,7 +5034,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:12">
       <c r="A17" s="10" t="s">
         <v>90</v>
       </c>
@@ -4837,7 +5054,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:12">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -4845,7 +5062,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:12">
       <c r="A19" s="10" t="s">
         <v>96</v>
       </c>
@@ -4865,7 +5082,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:12">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -4873,7 +5090,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:12">
       <c r="A21" s="10" t="s">
         <v>102</v>
       </c>
@@ -4889,7 +5106,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:12">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4897,7 +5114,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:12">
       <c r="A27" s="10" t="s">
         <v>104</v>
       </c>
@@ -4909,7 +5126,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:12">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -4917,7 +5134,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:12">
       <c r="A29" s="10"/>
       <c r="B29" s="10">
         <v>2015</v>
@@ -4934,8 +5151,23 @@
       <c r="F29" s="10">
         <v>2019</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="H29">
+        <v>2015</v>
+      </c>
+      <c r="I29">
+        <v>2016</v>
+      </c>
+      <c r="J29">
+        <v>2017</v>
+      </c>
+      <c r="K29">
+        <v>2018</v>
+      </c>
+      <c r="L29">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -4943,57 +5175,80 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:12">
       <c r="A31" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B31" s="10">
-        <f>31164/23898</f>
-        <v>1.3040421792618628</v>
+        <f>23898/31164</f>
+        <v>0.76684636118598382</v>
       </c>
       <c r="C31" s="10">
-        <f>36115/25517</f>
-        <v>1.415330955833366</v>
+        <f>25517/36115</f>
+        <v>0.70654852554340297</v>
       </c>
       <c r="D31" s="10">
-        <f>33632/17236</f>
-        <v>1.9512647946159201</v>
+        <f>17236/33632</f>
+        <v>0.51248810656517607</v>
       </c>
       <c r="E31" s="10">
-        <f>36739/22300</f>
-        <v>1.6474887892376682</v>
+        <f>22300/36739</f>
+        <v>0.60698440349492366</v>
       </c>
       <c r="F31" s="10">
-        <f>44179/26871</f>
-        <v>1.6441144728517734</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <f>26871/44179</f>
+        <v>0.60823015459833862</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0.76684636118598382</v>
+      </c>
+      <c r="I31" s="14">
+        <v>0.70654852554340297</v>
+      </c>
+      <c r="J31" s="14">
+        <v>0.51248810656517607</v>
+      </c>
+      <c r="K31" s="14">
+        <v>0.60698440349492366</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0.60823015459833862</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
+      <c r="G32" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>74</v>
+      <c r="B33" s="10">
+        <f>67197/11275</f>
+        <v>5.9598226164079824</v>
+      </c>
+      <c r="C33" s="10">
+        <f>72345/12615</f>
+        <v>5.7348394768133177</v>
+      </c>
+      <c r="D33" s="10">
+        <f>76690/11322</f>
+        <v>6.7735382441264793</v>
+      </c>
+      <c r="E33" s="10">
+        <f>92918/14215</f>
+        <v>6.5366162504396765</v>
+      </c>
+      <c r="F33" s="10">
+        <f>104449/14016</f>
+        <v>7.4521261415525117</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5008,20 +5263,25 @@
       <c r="A35" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>80</v>
+      <c r="B35" s="10">
+        <f>13792+1742</f>
+        <v>15534</v>
+      </c>
+      <c r="C35" s="10">
+        <f>15920+1734</f>
+        <v>17654</v>
+      </c>
+      <c r="D35" s="10">
+        <f>16413+1873</f>
+        <v>18286</v>
+      </c>
+      <c r="E35" s="10">
+        <f>22682+1706</f>
+        <v>24388</v>
+      </c>
+      <c r="F35" s="10">
+        <f>28203+1696</f>
+        <v>29899</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5176,20 +5436,25 @@
       <c r="A47" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>95</v>
+      <c r="B47" s="10" t="str">
+        <f>67197-15771&amp;" ("&amp;ROUND((67197/15771)*100,2)&amp;"%)"</f>
+        <v>51426 (426,08%)</v>
+      </c>
+      <c r="C47" s="10" t="str">
+        <f>72345-17006&amp;" ("&amp;ROUND((72345/17006)*100,2)&amp;"%)"</f>
+        <v>55339 (425,41%)</v>
+      </c>
+      <c r="D47" s="10" t="str">
+        <f>76690-17362&amp;" ("&amp;ROUND((76690/17362)*100,2)&amp;"%)"</f>
+        <v>59328 (441,71%)</v>
+      </c>
+      <c r="E47" s="10" t="str">
+        <f>92918-24402&amp;" ("&amp;ROUND((92918/24402)*100,2)&amp;"%)"</f>
+        <v>68516 (380,78%)</v>
+      </c>
+      <c r="F47" s="10" t="str">
+        <f>104449-21735&amp;" ("&amp;ROUND((104449/21735)*100,2)&amp;"%)"</f>
+        <v>82714 (480,56%)</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5204,20 +5469,25 @@
       <c r="A49" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>101</v>
+      <c r="B49" s="10">
+        <f>25581/6130</f>
+        <v>4.1730831973898859</v>
+      </c>
+      <c r="C49" s="10">
+        <f>29374/7598</f>
+        <v>3.8660173729928928</v>
+      </c>
+      <c r="D49" s="10">
+        <f>27490/13030</f>
+        <v>2.1097467382962396</v>
+      </c>
+      <c r="E49" s="10">
+        <f>30837/11792</f>
+        <v>2.6150780189959293</v>
+      </c>
+      <c r="F49" s="10">
+        <f>37952/15423</f>
+        <v>2.4607404525708358</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5235,11 +5505,15 @@
       <c r="B51" s="10">
         <v>100</v>
       </c>
-      <c r="C51" s="10"/>
+      <c r="C51" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="D51" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="10"/>
+      <c r="E51" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="F51" s="10" t="s">
         <v>103</v>
       </c>
@@ -5249,8 +5523,253 @@
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
+      <c r="E52" s="13"/>
       <c r="F52" s="10"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="B56">
+        <v>2015</v>
+      </c>
+      <c r="C56">
+        <v>2016</v>
+      </c>
+      <c r="D56">
+        <v>2017</v>
+      </c>
+      <c r="E56">
+        <v>2018</v>
+      </c>
+      <c r="F56">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
+        <v>1.3040421792618628</v>
+      </c>
+      <c r="C57">
+        <v>1.415330955833366</v>
+      </c>
+      <c r="D57">
+        <v>1.9512647946159201</v>
+      </c>
+      <c r="E57">
+        <v>1.6474887892376682</v>
+      </c>
+      <c r="F57">
+        <v>1.6441144728517734</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58">
+        <v>5.9598226164079824</v>
+      </c>
+      <c r="C58">
+        <v>5.7348394768133177</v>
+      </c>
+      <c r="D58">
+        <v>6.7735382441264793</v>
+      </c>
+      <c r="E58">
+        <v>6.5366162504396765</v>
+      </c>
+      <c r="F58">
+        <v>7.4521261415525117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59">
+        <v>15534</v>
+      </c>
+      <c r="C59">
+        <v>17654</v>
+      </c>
+      <c r="D59">
+        <v>18286</v>
+      </c>
+      <c r="E59">
+        <v>24388</v>
+      </c>
+      <c r="F59">
+        <v>29899</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63">
+        <v>46.225000000000001</v>
+      </c>
+      <c r="C63">
+        <v>49.453000000000003</v>
+      </c>
+      <c r="D63">
+        <v>76.474000000000004</v>
+      </c>
+      <c r="E63">
+        <v>81</v>
+      </c>
+      <c r="F63">
+        <v>83.988</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64">
+        <v>0.16400999999999999</v>
+      </c>
+      <c r="C64">
+        <v>0.17227999999999999</v>
+      </c>
+      <c r="D64">
+        <v>0.17076</v>
+      </c>
+      <c r="E64">
+        <v>0.24</v>
+      </c>
+      <c r="F64">
+        <v>0.21345</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66">
+        <v>4.1730831973898859</v>
+      </c>
+      <c r="C66">
+        <v>3.8660173729928928</v>
+      </c>
+      <c r="D66">
+        <v>2.1097467382962396</v>
+      </c>
+      <c r="E66">
+        <v>2.6150780189959293</v>
+      </c>
+      <c r="F66">
+        <v>2.4607404525708358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67">
+        <v>100</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="144">

--- a/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/TABLE_zisk.xlsx
+++ b/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/TABLE_zisk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ef484bc4f40e753/02_Škola a Školní projekty/05_Magisterske_Studium/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="526" documentId="8_{F6B13A76-5F62-AB4F-A41C-517B7EF7D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFA860F6-A0CB-1B4F-9B98-B49C2FDB7398}"/>
+  <xr:revisionPtr revIDLastSave="654" documentId="8_{F6B13A76-5F62-AB4F-A41C-517B7EF7D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECBB2694-EBF9-9843-AF4E-24BB3A31F123}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="6" xr2:uid="{12FAF507-91A5-BC41-AAAA-E86EC6315936}"/>
+    <workbookView xWindow="8660" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="8" xr2:uid="{12FAF507-91A5-BC41-AAAA-E86EC6315936}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="takticke" sheetId="8" r:id="rId8"/>
+    <sheet name="WACC" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="125">
   <si>
     <t>Year</t>
   </si>
@@ -409,6 +410,45 @@
   </si>
   <si>
     <t>Opraveno pořadí</t>
+  </si>
+  <si>
+    <t>Vlastní kapitál</t>
+  </si>
+  <si>
+    <t>Cizí kapitál</t>
+  </si>
+  <si>
+    <t>Daňová sazba</t>
+  </si>
+  <si>
+    <t>Náklady na vlastní kapitál</t>
+  </si>
+  <si>
+    <t>Náklady na cizí kapitál</t>
+  </si>
+  <si>
+    <t>WACC</t>
+  </si>
+  <si>
+    <t>NOPAT</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Stálá aktiva</t>
+  </si>
+  <si>
+    <t>Oběžná aktiva</t>
+  </si>
+  <si>
+    <t>Krátkodobé závazky</t>
+  </si>
+  <si>
+    <t>Čistý pracovní kapitál</t>
+  </si>
+  <si>
+    <t>EVA</t>
   </si>
 </sst>
 </file>
@@ -4342,8 +4382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCA47BA-BEE7-9B44-BF1B-8133CDC4F313}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4513,7 +4553,7 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>2738</v>
+        <v>-2738</v>
       </c>
       <c r="C10">
         <v>-3301</v>
@@ -4534,7 +4574,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ref="B11:E11" si="0">SUM(B4:B10)</f>
-        <v>19373</v>
+        <v>13897</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
@@ -4769,7 +4809,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" ref="B26:E26" si="3">B2+B11+B15+B22</f>
-        <v>33051</v>
+        <v>27575</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="3"/>
@@ -5920,4 +5960,328 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16FDA7B-E8AA-F74A-BC04-7BFC4608ACD7}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1">
+        <v>2017</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1">
+        <v>2019</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="2">
+        <v>25517</v>
+      </c>
+      <c r="C2" s="2">
+        <v>17236</v>
+      </c>
+      <c r="D2" s="2">
+        <v>22300</v>
+      </c>
+      <c r="E2" s="2">
+        <v>26871</v>
+      </c>
+      <c r="F2" s="2">
+        <f>AVERAGE(D2:E2)</f>
+        <v>24585.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7701</v>
+      </c>
+      <c r="C3" s="2">
+        <v>13057</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11819</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15423</v>
+      </c>
+      <c r="F3" s="2">
+        <f>AVERAGE(D3:E3)</f>
+        <v>13621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>0.19</v>
+      </c>
+      <c r="C4">
+        <v>0.19</v>
+      </c>
+      <c r="D4">
+        <v>0.19</v>
+      </c>
+      <c r="E4">
+        <v>0.19</v>
+      </c>
+      <c r="F4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="C5">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="D5">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="E5">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="F5">
+        <v>8.0699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6">
+        <v>4.36E-2</v>
+      </c>
+      <c r="C6">
+        <v>4.36E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.36E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.36E-2</v>
+      </c>
+      <c r="F6">
+        <v>4.36E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <f>B5*(B2/(B2+B3))+B6*(B3/(B2+B3))*(1-B4)</f>
+        <v>7.0178530194472871E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:F7" si="0">C5*(C2/(C2+C3))+C6*(C3/(C2+C3))*(1-C4)</f>
+        <v>6.1138421813620308E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>6.497874509803922E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>6.4150195488721806E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>6.452014934631542E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="2">
+        <v>12619</v>
+      </c>
+      <c r="C8" s="2">
+        <v>13181</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18063</v>
+      </c>
+      <c r="E8" s="2">
+        <v>22571</v>
+      </c>
+      <c r="F8" s="2">
+        <f>AVERAGE(D8:E8)</f>
+        <v>20317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9">
+        <v>4297</v>
+      </c>
+      <c r="C9">
+        <v>3904</v>
+      </c>
+      <c r="D9">
+        <v>3851</v>
+      </c>
+      <c r="E9">
+        <v>4239</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ref="F9:F11" si="1">AVERAGE(D9:E9)</f>
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="2">
+        <v>29374</v>
+      </c>
+      <c r="C10" s="2">
+        <v>27490</v>
+      </c>
+      <c r="D10" s="2">
+        <v>30837</v>
+      </c>
+      <c r="E10" s="2">
+        <v>37952</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>34394.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11">
+        <v>7598</v>
+      </c>
+      <c r="C11" s="2">
+        <v>13030</v>
+      </c>
+      <c r="D11" s="2">
+        <v>11792</v>
+      </c>
+      <c r="E11" s="2">
+        <v>15423</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>13607.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" ref="B12:F12" si="2">B10-B11</f>
+        <v>21776</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="2"/>
+        <v>14460</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>19045</v>
+      </c>
+      <c r="E12" s="2">
+        <f>E10-E11</f>
+        <v>22529</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>20787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ref="B13:D13" si="3">B9+B12</f>
+        <v>26073</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="3"/>
+        <v>18364</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="3"/>
+        <v>22896</v>
+      </c>
+      <c r="E13" s="2">
+        <f>E9+E12</f>
+        <v>26768</v>
+      </c>
+      <c r="F13" s="2">
+        <f>F9+F12</f>
+        <v>24832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" ref="B14:F14" si="4">B8-(B7*B13)</f>
+        <v>10789.235182239509</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="4"/>
+        <v>12058.254021814677</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="4"/>
+        <v>16575.246652235295</v>
+      </c>
+      <c r="E14" s="2">
+        <f>E8-(E7*E13)</f>
+        <v>20853.827567157896</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="4"/>
+        <v>18714.835651432295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/TABLE_zisk.xlsx
+++ b/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/TABLE_zisk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ef484bc4f40e753/02_Škola a Školní projekty/05_Magisterske_Studium/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="654" documentId="8_{F6B13A76-5F62-AB4F-A41C-517B7EF7D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECBB2694-EBF9-9843-AF4E-24BB3A31F123}"/>
+  <xr:revisionPtr revIDLastSave="673" documentId="8_{F6B13A76-5F62-AB4F-A41C-517B7EF7D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B60C97F8-13E6-F347-934F-7507E431761C}"/>
   <bookViews>
     <workbookView xWindow="8660" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="8" xr2:uid="{12FAF507-91A5-BC41-AAAA-E86EC6315936}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="135">
   <si>
     <t>Year</t>
   </si>
@@ -449,6 +449,36 @@
   </si>
   <si>
     <t>EVA</t>
+  </si>
+  <si>
+    <t>24585,5 *</t>
+  </si>
+  <si>
+    <t>20317*</t>
+  </si>
+  <si>
+    <t>4045*</t>
+  </si>
+  <si>
+    <t>13621*</t>
+  </si>
+  <si>
+    <t>34394,5*</t>
+  </si>
+  <si>
+    <t>13607,5*</t>
+  </si>
+  <si>
+    <t>20787*</t>
+  </si>
+  <si>
+    <t>24832*</t>
+  </si>
+  <si>
+    <t>18714,8356514323*</t>
+  </si>
+  <si>
+    <t>0,0645201493463154*</t>
   </si>
 </sst>
 </file>
@@ -5964,10 +5994,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16FDA7B-E8AA-F74A-BC04-7BFC4608ACD7}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6281,6 +6311,283 @@
         <v>18714.835651432295</v>
       </c>
     </row>
+    <row r="18" spans="1:6">
+      <c r="B18">
+        <v>2016</v>
+      </c>
+      <c r="C18">
+        <v>2017</v>
+      </c>
+      <c r="D18">
+        <v>2018</v>
+      </c>
+      <c r="E18">
+        <v>2019</v>
+      </c>
+      <c r="F18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19">
+        <v>25517</v>
+      </c>
+      <c r="C19">
+        <v>17236</v>
+      </c>
+      <c r="D19">
+        <v>22300</v>
+      </c>
+      <c r="E19">
+        <v>26871</v>
+      </c>
+      <c r="F19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20">
+        <v>7701</v>
+      </c>
+      <c r="C20">
+        <v>13057</v>
+      </c>
+      <c r="D20">
+        <v>11819</v>
+      </c>
+      <c r="E20">
+        <v>15423</v>
+      </c>
+      <c r="F20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21">
+        <v>0.19</v>
+      </c>
+      <c r="C21">
+        <v>0.19</v>
+      </c>
+      <c r="D21">
+        <v>0.19</v>
+      </c>
+      <c r="E21">
+        <v>0.19</v>
+      </c>
+      <c r="F21">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="C22">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="D22">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="E22">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="F22">
+        <v>8.0699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23">
+        <v>4.36E-2</v>
+      </c>
+      <c r="C23">
+        <v>4.36E-2</v>
+      </c>
+      <c r="D23">
+        <v>4.36E-2</v>
+      </c>
+      <c r="E23">
+        <v>4.36E-2</v>
+      </c>
+      <c r="F23">
+        <v>4.36E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24">
+        <v>7.0178530194472871E-2</v>
+      </c>
+      <c r="C24">
+        <v>6.1138421813620308E-2</v>
+      </c>
+      <c r="D24">
+        <v>6.497874509803922E-2</v>
+      </c>
+      <c r="E24">
+        <v>6.4150195488721806E-2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25">
+        <v>12619</v>
+      </c>
+      <c r="C25">
+        <v>13181</v>
+      </c>
+      <c r="D25">
+        <v>18063</v>
+      </c>
+      <c r="E25">
+        <v>22571</v>
+      </c>
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26">
+        <v>4297</v>
+      </c>
+      <c r="C26">
+        <v>3904</v>
+      </c>
+      <c r="D26">
+        <v>3851</v>
+      </c>
+      <c r="E26">
+        <v>4239</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27">
+        <v>29374</v>
+      </c>
+      <c r="C27">
+        <v>27490</v>
+      </c>
+      <c r="D27">
+        <v>30837</v>
+      </c>
+      <c r="E27">
+        <v>37952</v>
+      </c>
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28">
+        <v>7598</v>
+      </c>
+      <c r="C28">
+        <v>13030</v>
+      </c>
+      <c r="D28">
+        <v>11792</v>
+      </c>
+      <c r="E28">
+        <v>15423</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29">
+        <v>21776</v>
+      </c>
+      <c r="C29">
+        <v>14460</v>
+      </c>
+      <c r="D29">
+        <v>19045</v>
+      </c>
+      <c r="E29">
+        <v>22529</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30">
+        <v>26073</v>
+      </c>
+      <c r="C30">
+        <v>18364</v>
+      </c>
+      <c r="D30">
+        <v>22896</v>
+      </c>
+      <c r="E30">
+        <v>26768</v>
+      </c>
+      <c r="F30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31">
+        <v>10789.235182239509</v>
+      </c>
+      <c r="C31">
+        <v>12058.254021814677</v>
+      </c>
+      <c r="D31">
+        <v>16575.246652235295</v>
+      </c>
+      <c r="E31">
+        <v>20853.827567157896</v>
+      </c>
+      <c r="F31" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/TABLE_zisk.xlsx
+++ b/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/TABLE_zisk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ef484bc4f40e753/02_Škola a Školní projekty/05_Magisterske_Studium/2-rocnik-1-trimestr-strategicky-a-projektovy-management/Strategický audit/Parts/InternalResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="673" documentId="8_{F6B13A76-5F62-AB4F-A41C-517B7EF7D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B60C97F8-13E6-F347-934F-7507E431761C}"/>
+  <xr:revisionPtr revIDLastSave="695" documentId="8_{F6B13A76-5F62-AB4F-A41C-517B7EF7D0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74917711-A5A7-724D-92DF-29A64C35F89F}"/>
   <bookViews>
     <workbookView xWindow="8660" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="8" xr2:uid="{12FAF507-91A5-BC41-AAAA-E86EC6315936}"/>
   </bookViews>
@@ -23,39 +23,7 @@
     <sheet name="takticke" sheetId="8" r:id="rId8"/>
     <sheet name="WACC" sheetId="9" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$2:$B$11</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="136">
   <si>
     <t>Year</t>
   </si>
@@ -479,6 +447,9 @@
   </si>
   <si>
     <t>0,0645201493463154*</t>
+  </si>
+  <si>
+    <t>Bil. Suma s čas. Rozliš.</t>
   </si>
 </sst>
 </file>
@@ -486,8 +457,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="173" formatCode="0.0000%"/>
-    <numFmt numFmtId="180" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -577,22 +548,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,6 +951,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2102118159"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1037,6 +1010,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2125169919"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -4881,344 +4855,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="12">
         <v>0</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="12">
         <v>0</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="12">
         <v>0</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="12">
         <v>0</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="12">
         <v>46.225000000000001</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="12">
         <v>49.453000000000003</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="12">
         <v>76.474000000000004</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="12">
         <v>81</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="12">
         <v>83.988</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="14">
         <v>0.16400999999999999</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="14">
         <v>0.17227999999999999</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="14">
         <v>0.17076</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="15">
         <v>0.24</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="14">
         <v>0.21345</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="12">
         <v>100</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12">
         <v>2015</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="12">
         <v>2016</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="12">
         <v>2017</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="12">
         <v>2018</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="12">
         <v>2019</v>
       </c>
       <c r="H29">
@@ -5238,363 +5212,363 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="12">
         <f>23898/31164</f>
         <v>0.76684636118598382</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="12">
         <f>25517/36115</f>
         <v>0.70654852554340297</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="12">
         <f>17236/33632</f>
         <v>0.51248810656517607</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="12">
         <f>22300/36739</f>
         <v>0.60698440349492366</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="12">
         <f>26871/44179</f>
         <v>0.60823015459833862</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="11">
         <v>0.76684636118598382</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="11">
         <v>0.70654852554340297</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="11">
         <v>0.51248810656517607</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="11">
         <v>0.60698440349492366</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="11">
         <v>0.60823015459833862</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
       <c r="G32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="12">
         <f>67197/11275</f>
         <v>5.9598226164079824</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="12">
         <f>72345/12615</f>
         <v>5.7348394768133177</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="12">
         <f>76690/11322</f>
         <v>6.7735382441264793</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="12">
         <f>92918/14215</f>
         <v>6.5366162504396765</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="12">
         <f>104449/14016</f>
         <v>7.4521261415525117</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="12">
         <f>13792+1742</f>
         <v>15534</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="12">
         <f>15920+1734</f>
         <v>17654</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="12">
         <f>16413+1873</f>
         <v>18286</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="12">
         <f>22682+1706</f>
         <v>24388</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="12">
         <f>28203+1696</f>
         <v>29899</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="12">
         <v>0</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="12">
         <v>0</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="12">
         <v>0</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="12">
         <v>0</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="12">
         <v>46.225000000000001</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="12">
         <v>49.453000000000003</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="12">
         <v>76.474000000000004</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="12">
         <v>81</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="12">
         <v>83.988</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="14">
         <v>0.16400999999999999</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="14">
         <v>0.17227999999999999</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="14">
         <v>0.17076</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="15">
         <v>0.24</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="14">
         <v>0.21345</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="11"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="10" t="str">
+      <c r="B47" s="12" t="str">
         <f>67197-15771&amp;" ("&amp;ROUND((67197/15771)*100,2)&amp;"%)"</f>
         <v>51426 (426,08%)</v>
       </c>
-      <c r="C47" s="10" t="str">
+      <c r="C47" s="12" t="str">
         <f>72345-17006&amp;" ("&amp;ROUND((72345/17006)*100,2)&amp;"%)"</f>
         <v>55339 (425,41%)</v>
       </c>
-      <c r="D47" s="10" t="str">
+      <c r="D47" s="12" t="str">
         <f>76690-17362&amp;" ("&amp;ROUND((76690/17362)*100,2)&amp;"%)"</f>
         <v>59328 (441,71%)</v>
       </c>
-      <c r="E47" s="10" t="str">
+      <c r="E47" s="12" t="str">
         <f>92918-24402&amp;" ("&amp;ROUND((92918/24402)*100,2)&amp;"%)"</f>
         <v>68516 (380,78%)</v>
       </c>
-      <c r="F47" s="10" t="str">
+      <c r="F47" s="12" t="str">
         <f>104449-21735&amp;" ("&amp;ROUND((104449/21735)*100,2)&amp;"%)"</f>
         <v>82714 (480,56%)</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="12">
         <f>25581/6130</f>
         <v>4.1730831973898859</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="12">
         <f>29374/7598</f>
         <v>3.8660173729928928</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="12">
         <f>27490/13030</f>
         <v>2.1097467382962396</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="12">
         <f>30837/11792</f>
         <v>2.6150780189959293</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="12">
         <f>37952/15423</f>
         <v>2.4607404525708358</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="12">
         <v>100</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="12" t="s">
         <v>103</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
       <c r="E52" s="13"/>
-      <c r="F52" s="10"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
@@ -5843,6 +5817,138 @@
     </row>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="C51:C52"/>
@@ -5855,138 +5961,6 @@
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5994,10 +5968,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16FDA7B-E8AA-F74A-BC04-7BFC4608ACD7}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6067,524 +6041,537 @@
         <v>13621</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4">
-        <v>0.19</v>
-      </c>
-      <c r="C4">
-        <v>0.19</v>
-      </c>
-      <c r="D4">
-        <v>0.19</v>
-      </c>
-      <c r="E4">
-        <v>0.19</v>
-      </c>
-      <c r="F4">
-        <v>0.19</v>
-      </c>
+    <row r="4" spans="1:6" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <f>1883+E2+E3</f>
+        <v>44177</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5">
-        <v>8.0699999999999994E-2</v>
+        <v>0.19</v>
       </c>
       <c r="C5">
-        <v>8.0699999999999994E-2</v>
+        <v>0.19</v>
       </c>
       <c r="D5">
-        <v>8.0699999999999994E-2</v>
+        <v>0.19</v>
       </c>
       <c r="E5">
-        <v>8.0699999999999994E-2</v>
+        <v>0.19</v>
       </c>
       <c r="F5">
-        <v>8.0699999999999994E-2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6">
-        <v>4.36E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="C6">
-        <v>4.36E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="D6">
-        <v>4.36E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="E6">
-        <v>4.36E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="F6">
-        <v>4.36E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7">
-        <f>B5*(B2/(B2+B3))+B6*(B3/(B2+B3))*(1-B4)</f>
-        <v>7.0178530194472871E-2</v>
+        <v>4.36E-2</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:F7" si="0">C5*(C2/(C2+C3))+C6*(C3/(C2+C3))*(1-C4)</f>
-        <v>6.1138421813620308E-2</v>
+        <v>4.36E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>6.497874509803922E-2</v>
+        <v>4.36E-2</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>6.4150195488721806E-2</v>
+        <v>4.36E-2</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>6.452014934631542E-2</v>
+        <v>4.36E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="2">
-        <v>12619</v>
-      </c>
-      <c r="C8" s="2">
-        <v>13181</v>
-      </c>
-      <c r="D8" s="2">
-        <v>18063</v>
-      </c>
-      <c r="E8" s="2">
-        <v>22571</v>
-      </c>
-      <c r="F8" s="2">
-        <f>AVERAGE(D8:E8)</f>
-        <v>20317</v>
+        <v>117</v>
+      </c>
+      <c r="B8">
+        <f>B6*(B2/(B2+B3))+B7*(B3/(B2+B3))*(1-B5)</f>
+        <v>7.0178530194472871E-2</v>
+      </c>
+      <c r="C8">
+        <f>C6*(C2/(C2+C3))+C7*(C3/(C2+C3))*(1-C5)</f>
+        <v>6.1138421813620308E-2</v>
+      </c>
+      <c r="D8">
+        <f>D6*(D2/(D2+D3))+D7*(D3/(D2+D3))*(1-D5)</f>
+        <v>6.497874509803922E-2</v>
+      </c>
+      <c r="E8">
+        <f>E6*(E2/(E4))+E7*(E3/(E4))*(1-E5)</f>
+        <v>6.1415858206759162E-2</v>
+      </c>
+      <c r="F8">
+        <f>F6*(F2/(F2+F3))+F7*(F3/(F2+F3))*(1-F5)</f>
+        <v>6.452014934631542E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9">
-        <v>4297</v>
-      </c>
-      <c r="C9">
-        <v>3904</v>
-      </c>
-      <c r="D9">
-        <v>3851</v>
-      </c>
-      <c r="E9">
-        <v>4239</v>
+        <v>118</v>
+      </c>
+      <c r="B9" s="2">
+        <v>12619</v>
+      </c>
+      <c r="C9" s="2">
+        <v>13181</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18063</v>
+      </c>
+      <c r="E9" s="2">
+        <v>22571</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F11" si="1">AVERAGE(D9:E9)</f>
-        <v>4045</v>
+        <f>AVERAGE(D9:E9)</f>
+        <v>20317</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="2">
-        <v>29374</v>
-      </c>
-      <c r="C10" s="2">
-        <v>27490</v>
-      </c>
-      <c r="D10" s="2">
-        <v>30837</v>
-      </c>
-      <c r="E10" s="2">
-        <v>37952</v>
+        <v>120</v>
+      </c>
+      <c r="B10">
+        <v>4297</v>
+      </c>
+      <c r="C10">
+        <v>3904</v>
+      </c>
+      <c r="D10">
+        <v>3851</v>
+      </c>
+      <c r="E10">
+        <v>4239</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>34394.5</v>
+        <f t="shared" ref="F10:F12" si="0">AVERAGE(D10:E10)</f>
+        <v>4045</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11">
-        <v>7598</v>
+        <v>121</v>
+      </c>
+      <c r="B11" s="2">
+        <v>29374</v>
       </c>
       <c r="C11" s="2">
-        <v>13030</v>
+        <v>27490</v>
       </c>
       <c r="D11" s="2">
-        <v>11792</v>
+        <v>30837</v>
       </c>
       <c r="E11" s="2">
-        <v>15423</v>
+        <v>37952</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>13607.5</v>
+        <f t="shared" si="0"/>
+        <v>34394.5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" ref="B12:F12" si="2">B10-B11</f>
-        <v>21776</v>
+        <v>122</v>
+      </c>
+      <c r="B12">
+        <v>7598</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="2"/>
-        <v>14460</v>
+        <v>13030</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>19045</v>
+        <v>11792</v>
       </c>
       <c r="E12" s="2">
-        <f>E10-E11</f>
-        <v>22529</v>
+        <v>15423</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="2"/>
-        <v>20787</v>
+        <f t="shared" si="0"/>
+        <v>13607.5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" ref="B13:D13" si="3">B9+B12</f>
-        <v>26073</v>
+        <f t="shared" ref="B13:F13" si="1">B11-B12</f>
+        <v>21776</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="3"/>
-        <v>18364</v>
+        <f t="shared" si="1"/>
+        <v>14460</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="3"/>
-        <v>22896</v>
+        <f t="shared" si="1"/>
+        <v>19045</v>
       </c>
       <c r="E13" s="2">
-        <f>E9+E12</f>
-        <v>26768</v>
+        <f>E11-E12</f>
+        <v>22529</v>
       </c>
       <c r="F13" s="2">
-        <f>F9+F12</f>
-        <v>24832</v>
+        <f t="shared" si="1"/>
+        <v>20787</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" ref="B14:D14" si="2">B10+B13</f>
+        <v>26073</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="2"/>
+        <v>18364</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>22896</v>
+      </c>
+      <c r="E14" s="2">
+        <f>E10+E13</f>
+        <v>26768</v>
+      </c>
+      <c r="F14" s="2">
+        <f>F10+F13</f>
+        <v>24832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="2">
-        <f t="shared" ref="B14:F14" si="4">B8-(B7*B13)</f>
+      <c r="B15" s="2">
+        <f t="shared" ref="B15:F15" si="3">B9-(B8*B14)</f>
         <v>10789.235182239509</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" si="4"/>
+      <c r="C15" s="2">
+        <f t="shared" si="3"/>
         <v>12058.254021814677</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="4"/>
+      <c r="D15" s="2">
+        <f t="shared" si="3"/>
         <v>16575.246652235295</v>
       </c>
-      <c r="E14" s="2">
-        <f>E8-(E7*E13)</f>
-        <v>20853.827567157896</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="4"/>
+      <c r="E15" s="2">
+        <f>E9-(E8*E14)</f>
+        <v>20927.02030752147</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="3"/>
         <v>18714.835651432295</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="B18">
+    <row r="19" spans="1:6">
+      <c r="B19">
         <v>2016</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>2017</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>2018</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>2019</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>2020</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19">
-        <v>25517</v>
-      </c>
-      <c r="C19">
-        <v>17236</v>
-      </c>
-      <c r="D19">
-        <v>22300</v>
-      </c>
-      <c r="E19">
-        <v>26871</v>
-      </c>
-      <c r="F19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20">
-        <v>7701</v>
+        <v>25517</v>
       </c>
       <c r="C20">
-        <v>13057</v>
+        <v>17236</v>
       </c>
       <c r="D20">
-        <v>11819</v>
+        <v>22300</v>
       </c>
       <c r="E20">
-        <v>15423</v>
+        <v>26871</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21">
-        <v>0.19</v>
+        <v>7701</v>
       </c>
       <c r="C21">
-        <v>0.19</v>
+        <v>13057</v>
       </c>
       <c r="D21">
-        <v>0.19</v>
+        <v>11819</v>
       </c>
       <c r="E21">
-        <v>0.19</v>
-      </c>
-      <c r="F21">
-        <v>0.19</v>
+        <v>15423</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22">
-        <v>8.0699999999999994E-2</v>
+        <v>0.19</v>
       </c>
       <c r="C22">
-        <v>8.0699999999999994E-2</v>
+        <v>0.19</v>
       </c>
       <c r="D22">
-        <v>8.0699999999999994E-2</v>
+        <v>0.19</v>
       </c>
       <c r="E22">
-        <v>8.0699999999999994E-2</v>
+        <v>0.19</v>
       </c>
       <c r="F22">
-        <v>8.0699999999999994E-2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23">
-        <v>4.36E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="C23">
-        <v>4.36E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="D23">
-        <v>4.36E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="E23">
-        <v>4.36E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
       <c r="F23">
-        <v>4.36E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24">
-        <v>7.0178530194472871E-2</v>
+        <v>4.36E-2</v>
       </c>
       <c r="C24">
-        <v>6.1138421813620308E-2</v>
+        <v>4.36E-2</v>
       </c>
       <c r="D24">
-        <v>6.497874509803922E-2</v>
+        <v>4.36E-2</v>
       </c>
       <c r="E24">
-        <v>6.4150195488721806E-2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>134</v>
+        <v>4.36E-2</v>
+      </c>
+      <c r="F24">
+        <v>4.36E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25">
-        <v>12619</v>
+        <v>7.0178530194472871E-2</v>
       </c>
       <c r="C25">
-        <v>13181</v>
+        <v>6.1138421813620308E-2</v>
       </c>
       <c r="D25">
-        <v>18063</v>
+        <v>6.497874509803922E-2</v>
       </c>
       <c r="E25">
-        <v>22571</v>
+        <v>6.4150195488721806E-2</v>
       </c>
       <c r="F25" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B26">
-        <v>4297</v>
+        <v>12619</v>
       </c>
       <c r="C26">
-        <v>3904</v>
+        <v>13181</v>
       </c>
       <c r="D26">
-        <v>3851</v>
+        <v>18063</v>
       </c>
       <c r="E26">
-        <v>4239</v>
+        <v>22571</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27">
-        <v>29374</v>
+        <v>4297</v>
       </c>
       <c r="C27">
-        <v>27490</v>
+        <v>3904</v>
       </c>
       <c r="D27">
-        <v>30837</v>
+        <v>3851</v>
       </c>
       <c r="E27">
-        <v>37952</v>
+        <v>4239</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28">
-        <v>7598</v>
+        <v>29374</v>
       </c>
       <c r="C28">
-        <v>13030</v>
+        <v>27490</v>
       </c>
       <c r="D28">
-        <v>11792</v>
+        <v>30837</v>
       </c>
       <c r="E28">
-        <v>15423</v>
+        <v>37952</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29">
-        <v>21776</v>
+        <v>7598</v>
       </c>
       <c r="C29">
-        <v>14460</v>
+        <v>13030</v>
       </c>
       <c r="D29">
-        <v>19045</v>
+        <v>11792</v>
       </c>
       <c r="E29">
-        <v>22529</v>
+        <v>15423</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B30">
-        <v>26073</v>
+        <v>21776</v>
       </c>
       <c r="C30">
-        <v>18364</v>
+        <v>14460</v>
       </c>
       <c r="D30">
-        <v>22896</v>
+        <v>19045</v>
       </c>
       <c r="E30">
-        <v>26768</v>
+        <v>22529</v>
       </c>
       <c r="F30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31">
+        <v>26073</v>
+      </c>
+      <c r="C31">
+        <v>18364</v>
+      </c>
+      <c r="D31">
+        <v>22896</v>
+      </c>
+      <c r="E31">
+        <v>26768</v>
+      </c>
+      <c r="F31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
         <v>124</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>10789.235182239509</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>12058.254021814677</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>16575.246652235295</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>20853.827567157896</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>133</v>
       </c>
     </row>
